--- a/files/menus/arrowsmith_grill/displaycase_arrowsmith.xlsx
+++ b/files/menus/arrowsmith_grill/displaycase_arrowsmith.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ezrab_feedbc\files\menus\arrowsmith_grill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E5436E-D758-4088-9480-347387C9069B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA6ED60-8621-4C78-A1DD-AA1BEB1DC4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10785" yWindow="2265" windowWidth="24825" windowHeight="14220" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
+    <workbookView xWindow="17940" yWindow="3465" windowWidth="18930" windowHeight="15705" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
   </bookViews>
   <sheets>
     <sheet name="displaycase_arrowsmith" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>Ingredients</t>
   </si>
@@ -110,13 +110,16 @@
     <t>Ham &amp; Cheese Croissant</t>
   </si>
   <si>
-    <t>Cake Slice</t>
-  </si>
-  <si>
     <t>Vegan Tofu Roll</t>
   </si>
   <si>
     <t>GF,VGN</t>
+  </si>
+  <si>
+    <t>Wheat, milk, eggs, gluten, soy. May contain peanuts, sesame.</t>
+  </si>
+  <si>
+    <t>Cake Slice Varieties</t>
   </si>
 </sst>
 </file>
@@ -496,7 +499,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +557,7 @@
     </row>
     <row r="3" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -566,7 +569,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -646,21 +649,18 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>

--- a/files/menus/arrowsmith_grill/displaycase_arrowsmith.xlsx
+++ b/files/menus/arrowsmith_grill/displaycase_arrowsmith.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ezrab_feedbc\files\menus\arrowsmith_grill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA6ED60-8621-4C78-A1DD-AA1BEB1DC4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671D08F6-7AA7-4A75-9A06-E24D40FA29EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17940" yWindow="3465" windowWidth="18930" windowHeight="15705" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
+    <workbookView xWindow="9975" yWindow="1860" windowWidth="27915" windowHeight="15705" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
   </bookViews>
   <sheets>
     <sheet name="displaycase_arrowsmith" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>Ingredients</t>
   </si>
@@ -53,9 +53,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>waffles</t>
-  </si>
-  <si>
     <t>Egg, Sausage</t>
   </si>
   <si>
@@ -120,6 +117,12 @@
   </si>
   <si>
     <t>Cake Slice Varieties</t>
+  </si>
+  <si>
+    <t>placeholder</t>
+  </si>
+  <si>
+    <t>Cake Slice</t>
   </si>
 </sst>
 </file>
@@ -184,8 +187,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}" name="Table3" displayName="Table3" ref="A1:G9" totalsRowShown="0">
-  <autoFilter ref="A1:G9" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}" name="Table3" displayName="Table3" ref="A1:G8" totalsRowShown="0">
+  <autoFilter ref="A1:G8" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{AA44CCDF-F9E2-4FB6-9AED-85FE3A3C6008}" name="ItemName"/>
     <tableColumn id="2" xr3:uid="{9D7FC130-DF66-4465-8F0B-6015043C6AA1}" name="Ingredients"/>
@@ -499,7 +502,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -529,147 +532,150 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/files/menus/arrowsmith_grill/displaycase_arrowsmith.xlsx
+++ b/files/menus/arrowsmith_grill/displaycase_arrowsmith.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ezrab_feedbc\files\menus\arrowsmith_grill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671D08F6-7AA7-4A75-9A06-E24D40FA29EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D4E109-64FC-48BE-A213-D4B9B1E9B3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9975" yWindow="1860" windowWidth="27915" windowHeight="15705" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
+    <workbookView xWindow="-19875" yWindow="9075" windowWidth="21285" windowHeight="13215" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
   </bookViews>
   <sheets>
     <sheet name="displaycase_arrowsmith" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>Ingredients</t>
   </si>
@@ -53,83 +53,119 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Egg, Sausage</t>
-  </si>
-  <si>
-    <t>VGN, GF, DF</t>
-  </si>
-  <si>
-    <t>Turkey / Bacon / Cheddar Cheese / Lettuce / Tomato / Garlic Aioli</t>
-  </si>
-  <si>
-    <t>Turkey / Swiss Cheese / Roasted Onion / Tomato / Cucumber / Mixed Greens / Spicy Mayo</t>
-  </si>
-  <si>
-    <t>Falafel / Feta / Red Onion / Cucumber / Mixed Greens / Tomato / Tzatziki</t>
-  </si>
-  <si>
     <t>Allergens</t>
   </si>
   <si>
-    <t>Wheat, sulphites, egg.</t>
-  </si>
-  <si>
-    <t>No known priority allergens</t>
-  </si>
-  <si>
-    <t>GF</t>
-  </si>
-  <si>
-    <t>GF,VEG</t>
-  </si>
-  <si>
     <t>Nutrition Label</t>
   </si>
   <si>
     <t>LeaveEmpty</t>
   </si>
   <si>
-    <t>Sausage Roll</t>
-  </si>
-  <si>
     <t>Beef Samosa</t>
   </si>
   <si>
     <t>Vegetarian Samosa</t>
   </si>
   <si>
-    <t>Samosas</t>
-  </si>
-  <si>
     <t>Pepperoni Stick</t>
   </si>
   <si>
     <t>Ham &amp; Cheese Croissant</t>
   </si>
   <si>
-    <t>Vegan Tofu Roll</t>
-  </si>
-  <si>
-    <t>GF,VGN</t>
-  </si>
-  <si>
-    <t>Wheat, milk, eggs, gluten, soy. May contain peanuts, sesame.</t>
-  </si>
-  <si>
     <t>Cake Slice Varieties</t>
   </si>
   <si>
     <t>placeholder</t>
   </si>
   <si>
-    <t>Cake Slice</t>
+    <t>Item will vary daily - find information in the cafeteria.</t>
+  </si>
+  <si>
+    <t>VEG</t>
+  </si>
+  <si>
+    <t>Pastry / Beef / Peas / Carrots / Onion / Potatoes</t>
+  </si>
+  <si>
+    <t>Nana's Kitchen Beef Samosa</t>
+  </si>
+  <si>
+    <t>Tofu Scramble Roll</t>
+  </si>
+  <si>
+    <t>Flaky Pastry / Tofu Scramble / Spices</t>
+  </si>
+  <si>
+    <t>Wheat, soy.</t>
+  </si>
+  <si>
+    <t>Maureen's Tofu Roll</t>
+  </si>
+  <si>
+    <t>BC,VGN,DF</t>
+  </si>
+  <si>
+    <t>Beef Sausage Roll</t>
+  </si>
+  <si>
+    <t>Flaky Pastry / Ground Beef Sausage / Spices</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>BC,DF</t>
+  </si>
+  <si>
+    <t>BC,DF,VEG</t>
+  </si>
+  <si>
+    <t>Nana's Kitchen Vegetarian Samosa</t>
+  </si>
+  <si>
+    <t>Wheat, sulphites.</t>
+  </si>
+  <si>
+    <t>Pastry / Peas / Carrots / Onion / Potatoes</t>
+  </si>
+  <si>
+    <t>Wheat, milk, eggs, soy, sulphites.</t>
+  </si>
+  <si>
+    <t>Flaky Butter Pastry /  Black Forest Ham / Cheddar Cheese</t>
+  </si>
+  <si>
+    <t>May contain wheat, milk, eggs, gluten, soy, peanuts, sesame.</t>
+  </si>
+  <si>
+    <t>Tofu_Scramble_Roll</t>
+  </si>
+  <si>
+    <t>Beef_Sausage_Roll</t>
+  </si>
+  <si>
+    <t>Beef_Samosa</t>
+  </si>
+  <si>
+    <t>Vegetarian_Samosa</t>
+  </si>
+  <si>
+    <t>Ham_&amp;_Cheese_Croissant</t>
+  </si>
+  <si>
+    <t>Wheat, milk, eggs, sulphites.</t>
+  </si>
+  <si>
+    <t>Yeast Dough / Spicy Pepperoni / Mixed Shredded Cheese</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,16 +179,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor rgb="FFC6E0B4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -160,14 +209,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,7 +570,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -532,150 +600,150 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
         <v>9</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
+      <c r="A7" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
